--- a/biology/Botanique/Eriodictyon_californicum/Eriodictyon_californicum.xlsx
+++ b/biology/Botanique/Eriodictyon_californicum/Eriodictyon_californicum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Eriodictyon californicum est une plante arbustive de la famille des Hydrophyllaceae[2]. Elle est aussi connue sous le nom de Yerba Santa ("herbe sacrée" en mexicain), Mountain Balm ("herbe des montagnes" en anglais) et Bear's Weed ("Herbe à ours" en anglais)[3].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Eriodictyon californicum est une plante arbustive de la famille des Hydrophyllaceae. Elle est aussi connue sous le nom de Yerba Santa ("herbe sacrée" en mexicain), Mountain Balm ("herbe des montagnes" en anglais) et Bear's Weed ("Herbe à ours" en anglais).
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cet arbuste, haut de 0,5 à 1,5 m, pousse dans les régions sèches du nord du Mexique et de l'État de Californie. Le pied à l'écorce lisse et aux branches basses est couvert d'une résine qui exsude de toutes les parties de la plante. Les feuilles persistantes sont épaisses et luisantes[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cet arbuste, haut de 0,5 à 1,5 m, pousse dans les régions sèches du nord du Mexique et de l'État de Californie. Le pied à l'écorce lisse et aux branches basses est couvert d'une résine qui exsude de toutes les parties de la plante. Les feuilles persistantes sont épaisses et luisantes.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le philosophe grec péripatéticien Théophraste, dans son traité Des Odeurs dit qu'à leur sortie d'hibernation, au printemps, les ours consomment une herbe nommée « aros » (en grec ancien αρος[5]).
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le philosophe grec péripatéticien Théophraste, dans son traité Des Odeurs dit qu'à leur sortie d'hibernation, au printemps, les ours consomment une herbe nommée « aros » (en grec ancien αρος).
 </t>
         </is>
       </c>
@@ -575,11 +591,51 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Médical
-Les extraits de feuilles sont utilisés traditionnellement pour traiter l'asthme, les infections respiratoires et les rhinites allergiques[4].
-Alimentaire
-Sont extraites des feuilles 4 flavonoïdes (l'homoeriodictyol, homoeriodictyol sodique, la stérubine et l'eriodictyol) qui ont la capacité de réduire l'amertume de composé amer[6].
-Cette flavanone est un agent (arôme) masquant potentiel dans les applications alimentaires ou pharmaceutiques. L'homoeriodictyol sodique a déjà obtenu le statut Fema GRAS (numéro 4228) en 2005 et peut donc déjà être utilisé dans les aliments en tant qu'arôme naturel[7].
+          <t>Médical</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les extraits de feuilles sont utilisés traditionnellement pour traiter l'asthme, les infections respiratoires et les rhinites allergiques.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Eriodictyon_californicum</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Eriodictyon_californicum</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Utilisation</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Alimentaire</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sont extraites des feuilles 4 flavonoïdes (l'homoeriodictyol, homoeriodictyol sodique, la stérubine et l'eriodictyol) qui ont la capacité de réduire l'amertume de composé amer.
+Cette flavanone est un agent (arôme) masquant potentiel dans les applications alimentaires ou pharmaceutiques. L'homoeriodictyol sodique a déjà obtenu le statut Fema GRAS (numéro 4228) en 2005 et peut donc déjà être utilisé dans les aliments en tant qu'arôme naturel.
 </t>
         </is>
       </c>
